--- a/www.eia.gov/electricity/monthly/xls/table_5_07.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Table 5.7. Number of Ultimate Customers Served by Sector:</t>
   </si>
   <si>
-    <t>2008 - October 2016</t>
+    <t>2008 - November 2016</t>
   </si>
   <si>
     <t>Period</t>
@@ -96,7 +96,7 @@
     <t>Year 2016</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>See Technical notes for additional information on the Commercial, Industrial, and Transportation sectors. NA = Not available. See Glossary for definitions.
@@ -995,7 +995,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1930,69 +1930,89 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="7">
+        <v>131340346</v>
+      </c>
+      <c r="C50" s="7">
+        <v>18176753</v>
+      </c>
+      <c r="D50" s="7">
+        <v>799957</v>
+      </c>
+      <c r="E50" s="7">
+        <v>83</v>
+      </c>
+      <c r="F50" s="7">
+        <v>150317139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B51" s="7">
-        <v>129621644</v>
-      </c>
-      <c r="C51" s="7">
-        <v>17958720</v>
-      </c>
-      <c r="D51" s="7">
-        <v>835956</v>
-      </c>
-      <c r="E51" s="7">
-        <v>78</v>
-      </c>
-      <c r="F51" s="7">
-        <v>148416397</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B52" s="7">
+        <v>129711792</v>
+      </c>
+      <c r="C52" s="7">
+        <v>17972744</v>
+      </c>
+      <c r="D52" s="7">
+        <v>836010</v>
+      </c>
+      <c r="E52" s="7">
+        <v>78</v>
+      </c>
+      <c r="F52" s="7">
+        <v>148520624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>2016</v>
       </c>
-      <c r="B52" s="7">
-        <v>130873287</v>
-      </c>
-      <c r="C52" s="7">
-        <v>18116996</v>
-      </c>
-      <c r="D52" s="7">
-        <v>817181</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="B53" s="7">
+        <v>131008111</v>
+      </c>
+      <c r="C53" s="7">
+        <v>18132092</v>
+      </c>
+      <c r="D53" s="7">
+        <v>815040</v>
+      </c>
+      <c r="E53" s="7">
         <v>82</v>
       </c>
-      <c r="F52" s="7">
-        <v>149807546</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="F53" s="7">
+        <v>149955325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A54:F54"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
